--- a/Code/Results/Cases/Case_3_109/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_109/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9864885311745737</v>
+        <v>1.013793926068955</v>
       </c>
       <c r="D2">
-        <v>1.0069195888708</v>
+        <v>1.020048264153338</v>
       </c>
       <c r="E2">
-        <v>0.9948554044636689</v>
+        <v>1.015670437013835</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03766738043117</v>
+        <v>1.025677096293251</v>
       </c>
       <c r="J2">
-        <v>1.009081017508123</v>
+        <v>1.019028854079417</v>
       </c>
       <c r="K2">
-        <v>1.018283357279867</v>
+        <v>1.022889703837036</v>
       </c>
       <c r="L2">
-        <v>1.006386880045635</v>
+        <v>1.018524900757735</v>
       </c>
       <c r="N2">
-        <v>1.007126261475641</v>
+        <v>1.010482264980734</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9900824073251564</v>
+        <v>1.014560158083</v>
       </c>
       <c r="D3">
-        <v>1.009304138932701</v>
+        <v>1.020571571607653</v>
       </c>
       <c r="E3">
-        <v>0.9976407707769482</v>
+        <v>1.01631489921221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038204372158679</v>
+        <v>1.025731484584719</v>
       </c>
       <c r="J3">
-        <v>1.010847136368365</v>
+        <v>1.01943035070711</v>
       </c>
       <c r="K3">
-        <v>1.019819339786217</v>
+        <v>1.023219944023796</v>
       </c>
       <c r="L3">
-        <v>1.008303927651194</v>
+        <v>1.018975022064269</v>
       </c>
       <c r="N3">
-        <v>1.007715725327032</v>
+        <v>1.010615547099763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9923669890950001</v>
+        <v>1.015056621355488</v>
       </c>
       <c r="D4">
-        <v>1.010821705580271</v>
+        <v>1.0209104740811</v>
       </c>
       <c r="E4">
-        <v>0.9994175334538993</v>
+        <v>1.016732888917631</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038534994809414</v>
+        <v>1.025765382872579</v>
       </c>
       <c r="J4">
-        <v>1.011967984164022</v>
+        <v>1.01969015008195</v>
       </c>
       <c r="K4">
-        <v>1.020791253392451</v>
+        <v>1.023433207292328</v>
       </c>
       <c r="L4">
-        <v>1.009522993420789</v>
+        <v>1.019266574955233</v>
       </c>
       <c r="N4">
-        <v>1.008089728017109</v>
+        <v>1.010701766359047</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9933179141923015</v>
+        <v>1.015265490542645</v>
       </c>
       <c r="D5">
-        <v>1.011453738719704</v>
+        <v>1.021053015495152</v>
       </c>
       <c r="E5">
-        <v>1.000158525343402</v>
+        <v>1.016908844252872</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038669995988382</v>
+        <v>1.025779323072867</v>
       </c>
       <c r="J5">
-        <v>1.012434049619951</v>
+        <v>1.019799369339803</v>
       </c>
       <c r="K5">
-        <v>1.021194681278226</v>
+        <v>1.023522760176482</v>
       </c>
       <c r="L5">
-        <v>1.010030485301793</v>
+        <v>1.019389212717889</v>
       </c>
       <c r="N5">
-        <v>1.00824522007503</v>
+        <v>1.010738006891468</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9934770287134447</v>
+        <v>1.015300569690796</v>
       </c>
       <c r="D6">
-        <v>1.011559514478782</v>
+        <v>1.021076952684722</v>
       </c>
       <c r="E6">
-        <v>1.000282596207004</v>
+        <v>1.016938401500015</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038692430297439</v>
+        <v>1.025781645456922</v>
       </c>
       <c r="J6">
-        <v>1.012512005988253</v>
+        <v>1.019817707669409</v>
       </c>
       <c r="K6">
-        <v>1.02126211843117</v>
+        <v>1.02353779041835</v>
       </c>
       <c r="L6">
-        <v>1.010115405366329</v>
+        <v>1.019409808135243</v>
       </c>
       <c r="N6">
-        <v>1.008271226985392</v>
+        <v>1.010744091467512</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9923797324221281</v>
+        <v>1.015059411665167</v>
       </c>
       <c r="D7">
-        <v>1.010830174057654</v>
+        <v>1.02091237846648</v>
       </c>
       <c r="E7">
-        <v>0.9994274578320244</v>
+        <v>1.016735239130595</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038536814336892</v>
+        <v>1.025765570363717</v>
       </c>
       <c r="J7">
-        <v>1.011974231795439</v>
+        <v>1.01969160947836</v>
       </c>
       <c r="K7">
-        <v>1.020796664185117</v>
+        <v>1.023434404308855</v>
       </c>
       <c r="L7">
-        <v>1.009529794058332</v>
+        <v>1.019268213378111</v>
       </c>
       <c r="N7">
-        <v>1.008091812492389</v>
+        <v>1.010702250631187</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9877117370736944</v>
+        <v>1.014052739945947</v>
       </c>
       <c r="D8">
-        <v>1.007730796022793</v>
+        <v>1.020225057599428</v>
       </c>
       <c r="E8">
-        <v>0.9958021210918163</v>
+        <v>1.015888031974956</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037852372640965</v>
+        <v>1.025695744690433</v>
       </c>
       <c r="J8">
-        <v>1.0096825015601</v>
+        <v>1.019164540027655</v>
       </c>
       <c r="K8">
-        <v>1.018807057224509</v>
+        <v>1.023001397028323</v>
       </c>
       <c r="L8">
-        <v>1.007039257184791</v>
+        <v>1.018676959503296</v>
       </c>
       <c r="N8">
-        <v>1.007327033037064</v>
+        <v>1.01052731280066</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9791598712582642</v>
+        <v>1.012283996683516</v>
       </c>
       <c r="D9">
-        <v>1.002068781912553</v>
+        <v>1.01901620227694</v>
       </c>
       <c r="E9">
-        <v>0.989210652408343</v>
+        <v>1.014402737519766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036515345255915</v>
+        <v>1.025562819711759</v>
       </c>
       <c r="J9">
-        <v>1.00547063764051</v>
+        <v>1.018235870720592</v>
       </c>
       <c r="K9">
-        <v>1.015128383508884</v>
+        <v>1.022235197315357</v>
       </c>
       <c r="L9">
-        <v>1.002481238866123</v>
+        <v>1.017637416281911</v>
       </c>
       <c r="N9">
-        <v>1.005920796553028</v>
+        <v>1.010218894241586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9732201301002283</v>
+        <v>1.011108408088345</v>
       </c>
       <c r="D10">
-        <v>0.9981505072303674</v>
+        <v>1.01821196073472</v>
       </c>
       <c r="E10">
-        <v>0.9846688836240479</v>
+        <v>1.013417768607924</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035533093790179</v>
+        <v>1.025467600937058</v>
       </c>
       <c r="J10">
-        <v>1.002538071742902</v>
+        <v>1.017616905359605</v>
       </c>
       <c r="K10">
-        <v>1.012553235326913</v>
+        <v>1.021722341455993</v>
       </c>
       <c r="L10">
-        <v>0.9993205754494575</v>
+        <v>1.016946039847802</v>
       </c>
       <c r="N10">
-        <v>1.004941309549386</v>
+        <v>1.010013206632241</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9705870452904434</v>
+        <v>1.010600237626655</v>
       </c>
       <c r="D11">
-        <v>0.9964177158898545</v>
+        <v>1.017864135158167</v>
       </c>
       <c r="E11">
-        <v>0.9826647106651362</v>
+        <v>1.012992532047668</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035085523287773</v>
+        <v>1.02542481326569</v>
       </c>
       <c r="J11">
-        <v>1.001236779354294</v>
+        <v>1.017348939311283</v>
       </c>
       <c r="K11">
-        <v>1.011407506525437</v>
+        <v>1.021499799700126</v>
       </c>
       <c r="L11">
-        <v>0.9979211209810308</v>
+        <v>1.016647077525566</v>
       </c>
       <c r="N11">
-        <v>1.00450660312883</v>
+        <v>1.009924130024823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9695994038628581</v>
+        <v>1.01041161277897</v>
       </c>
       <c r="D12">
-        <v>0.9957684613251397</v>
+        <v>1.017735001892168</v>
       </c>
       <c r="E12">
-        <v>0.9819143982652163</v>
+        <v>1.012834771903383</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034915870475775</v>
+        <v>1.025408686767084</v>
       </c>
       <c r="J12">
-        <v>1.000748521916584</v>
+        <v>1.017249413750399</v>
       </c>
       <c r="K12">
-        <v>1.010977182459521</v>
+        <v>1.021417068371979</v>
       </c>
       <c r="L12">
-        <v>0.9973964905917917</v>
+        <v>1.016536092518</v>
       </c>
       <c r="N12">
-        <v>1.004343488126898</v>
+        <v>1.009891041632509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9698116974199945</v>
+        <v>1.010452067430553</v>
       </c>
       <c r="D13">
-        <v>0.9959079860040564</v>
+        <v>1.017762698457446</v>
       </c>
       <c r="E13">
-        <v>0.9820756124392196</v>
+        <v>1.01286860328333</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034952416716045</v>
+        <v>1.025412156499441</v>
       </c>
       <c r="J13">
-        <v>1.000853479359037</v>
+        <v>1.017270761892427</v>
       </c>
       <c r="K13">
-        <v>1.011069705702943</v>
+        <v>1.021434817640167</v>
       </c>
       <c r="L13">
-        <v>0.9975092461707745</v>
+        <v>1.016559896306762</v>
       </c>
       <c r="N13">
-        <v>1.004378552249522</v>
+        <v>1.009898139259054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9705056047659686</v>
+        <v>1.010584643127656</v>
       </c>
       <c r="D14">
-        <v>0.9963641640410582</v>
+        <v>1.0178534596314</v>
       </c>
       <c r="E14">
-        <v>0.982602810798111</v>
+        <v>1.0129794876231</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035071569572579</v>
+        <v>1.02542348499842</v>
       </c>
       <c r="J14">
-        <v>1.001196520813097</v>
+        <v>1.017340712306243</v>
       </c>
       <c r="K14">
-        <v>1.011372033532767</v>
+        <v>1.021492962510221</v>
       </c>
       <c r="L14">
-        <v>0.997877854040767</v>
+        <v>1.01663790217776</v>
       </c>
       <c r="N14">
-        <v>1.004493153896904</v>
+        <v>1.009921394953103</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9709318596693493</v>
+        <v>1.010666344979696</v>
       </c>
       <c r="D15">
-        <v>0.9966444800915171</v>
+        <v>1.017909389214088</v>
       </c>
       <c r="E15">
-        <v>0.9829268497324584</v>
+        <v>1.013047832583145</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035144530427568</v>
+        <v>1.025430433973751</v>
       </c>
       <c r="J15">
-        <v>1.001407225466193</v>
+        <v>1.017383812295339</v>
       </c>
       <c r="K15">
-        <v>1.011557673997894</v>
+        <v>1.021528778329882</v>
       </c>
       <c r="L15">
-        <v>0.998104322711856</v>
+        <v>1.016685972552733</v>
       </c>
       <c r="N15">
-        <v>1.004563543963812</v>
+        <v>1.009935723386767</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9733935565804209</v>
+        <v>1.011142152129631</v>
       </c>
       <c r="D16">
-        <v>0.9982647294305844</v>
+        <v>1.018235053722858</v>
       </c>
       <c r="E16">
-        <v>0.9848010832638429</v>
+        <v>1.013446016917354</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035562323551714</v>
+        <v>1.025470407864246</v>
       </c>
       <c r="J16">
-        <v>1.00262375675131</v>
+        <v>1.017634690561183</v>
       </c>
       <c r="K16">
-        <v>1.012628615460512</v>
+        <v>1.021737101004919</v>
       </c>
       <c r="L16">
-        <v>0.9994127877244425</v>
+        <v>1.016965889728307</v>
       </c>
       <c r="N16">
-        <v>1.004969931932612</v>
+        <v>1.010019118132853</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9749210624759368</v>
+        <v>1.011440846963881</v>
       </c>
       <c r="D17">
-        <v>0.99927126079141</v>
+        <v>1.018439447405133</v>
       </c>
       <c r="E17">
-        <v>0.9859665260537901</v>
+        <v>1.01369612666564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035818394396317</v>
+        <v>1.025495065998497</v>
       </c>
       <c r="J17">
-        <v>1.003378310755586</v>
+        <v>1.01779207428526</v>
       </c>
       <c r="K17">
-        <v>1.013292079521891</v>
+        <v>1.021867651043158</v>
       </c>
       <c r="L17">
-        <v>1.000225169913824</v>
+        <v>1.017141584788225</v>
       </c>
       <c r="N17">
-        <v>1.005221976763318</v>
+        <v>1.010071426460765</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9758061608690349</v>
+        <v>1.011615154140687</v>
       </c>
       <c r="D18">
-        <v>0.9998548784454325</v>
+        <v>1.018558706810633</v>
       </c>
       <c r="E18">
-        <v>0.9866427015907644</v>
+        <v>1.013842133022439</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035965613880005</v>
+        <v>1.02550929836483</v>
       </c>
       <c r="J18">
-        <v>1.003815404788053</v>
+        <v>1.017883878280057</v>
       </c>
       <c r="K18">
-        <v>1.01367611734667</v>
+        <v>1.021943753053054</v>
       </c>
       <c r="L18">
-        <v>1.000696052726675</v>
+        <v>1.017244104027421</v>
       </c>
       <c r="N18">
-        <v>1.005367973159557</v>
+        <v>1.010101935782033</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.976106973018273</v>
+        <v>1.011674602491142</v>
       </c>
       <c r="D19">
-        <v>1.000053293080496</v>
+        <v>1.018599377911759</v>
       </c>
       <c r="E19">
-        <v>0.986872654892232</v>
+        <v>1.013891937972986</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03601545038626</v>
+        <v>1.02551412571761</v>
       </c>
       <c r="J19">
-        <v>1.003963934588199</v>
+        <v>1.017915181828418</v>
       </c>
       <c r="K19">
-        <v>1.013806568189419</v>
+        <v>1.021969694089316</v>
       </c>
       <c r="L19">
-        <v>1.000856113631102</v>
+        <v>1.017279067053739</v>
       </c>
       <c r="N19">
-        <v>1.005417583287918</v>
+        <v>1.010112338446175</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9747577856062208</v>
+        <v>1.011408791180248</v>
       </c>
       <c r="D20">
-        <v>0.9991636302668029</v>
+        <v>1.018417513741933</v>
       </c>
       <c r="E20">
-        <v>0.9858418598463694</v>
+        <v>1.013669279666561</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035791142447764</v>
+        <v>1.025492435955763</v>
       </c>
       <c r="J20">
-        <v>1.003297668303729</v>
+        <v>1.017775188001345</v>
       </c>
       <c r="K20">
-        <v>1.013221202187893</v>
+        <v>1.021853648967525</v>
       </c>
       <c r="L20">
-        <v>1.000138317001968</v>
+        <v>1.017122730296427</v>
       </c>
       <c r="N20">
-        <v>1.005195040334687</v>
+        <v>1.010065814396976</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.970301534676091</v>
+        <v>1.0105455992213</v>
       </c>
       <c r="D21">
-        <v>0.9962299876348171</v>
+        <v>1.017826730926677</v>
       </c>
       <c r="E21">
-        <v>0.9824477280671307</v>
+        <v>1.012946829641299</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035036576546554</v>
+        <v>1.025420155470982</v>
       </c>
       <c r="J21">
-        <v>1.001095640326958</v>
+        <v>1.017320113393908</v>
       </c>
       <c r="K21">
-        <v>1.011283137800403</v>
+        <v>1.021475842199527</v>
       </c>
       <c r="L21">
-        <v>0.9977694424476697</v>
+        <v>1.016614929643717</v>
       </c>
       <c r="N21">
-        <v>1.004459452460842</v>
+        <v>1.009914546764714</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9674439699224824</v>
+        <v>1.010003642548644</v>
       </c>
       <c r="D22">
-        <v>0.9943528821844263</v>
+        <v>1.017455657341106</v>
       </c>
       <c r="E22">
-        <v>0.9802795984543378</v>
+        <v>1.012493706499807</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034542415973765</v>
+        <v>1.025373360689526</v>
       </c>
       <c r="J22">
-        <v>0.999682699287487</v>
+        <v>1.017034042482262</v>
       </c>
       <c r="K22">
-        <v>1.010037045840926</v>
+        <v>1.021237899221228</v>
       </c>
       <c r="L22">
-        <v>0.9962521111910544</v>
+        <v>1.016296019976106</v>
       </c>
       <c r="N22">
-        <v>1.003987407858862</v>
+        <v>1.009819431099563</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9689642462311682</v>
+        <v>1.010290870721381</v>
       </c>
       <c r="D23">
-        <v>0.9953511271925847</v>
+        <v>1.017652334225293</v>
       </c>
       <c r="E23">
-        <v>0.9814322778534718</v>
+        <v>1.012733809740103</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034806272321898</v>
+        <v>1.025398295135386</v>
       </c>
       <c r="J23">
-        <v>1.000434481338824</v>
+        <v>1.017185688622326</v>
       </c>
       <c r="K23">
-        <v>1.010700283713622</v>
+        <v>1.021364074804179</v>
       </c>
       <c r="L23">
-        <v>0.9970591845626102</v>
+        <v>1.016465044924327</v>
       </c>
       <c r="N23">
-        <v>1.004238572439042</v>
+        <v>1.009869854274592</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9748315815059944</v>
+        <v>1.011423275551202</v>
       </c>
       <c r="D24">
-        <v>0.9992122745939921</v>
+        <v>1.018427424496807</v>
       </c>
       <c r="E24">
-        <v>0.9858982022715735</v>
+        <v>1.01368141029448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035803463046181</v>
+        <v>1.025493624823379</v>
       </c>
       <c r="J24">
-        <v>1.003334116491204</v>
+        <v>1.017782818171756</v>
       </c>
       <c r="K24">
-        <v>1.013253237709292</v>
+        <v>1.021859976043938</v>
       </c>
       <c r="L24">
-        <v>1.000177571247882</v>
+        <v>1.01713124970852</v>
       </c>
       <c r="N24">
-        <v>1.005207214886499</v>
+        <v>1.010068350250936</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9814113061359976</v>
+        <v>1.012740637921531</v>
       </c>
       <c r="D25">
-        <v>1.003557188178616</v>
+        <v>1.019328436256194</v>
       </c>
       <c r="E25">
-        <v>0.9909398669802728</v>
+        <v>1.014785809320876</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036876801204872</v>
+        <v>1.025598350806098</v>
       </c>
       <c r="J25">
-        <v>1.006580867027377</v>
+        <v>1.018475934140528</v>
       </c>
       <c r="K25">
-        <v>1.016100533223286</v>
+        <v>1.022433646965284</v>
       </c>
       <c r="L25">
-        <v>1.00368047714849</v>
+        <v>1.017905878561795</v>
       </c>
       <c r="N25">
-        <v>1.006291545695069</v>
+        <v>1.010298643247282</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_109/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_109/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013793926068955</v>
+        <v>0.9864885311745742</v>
       </c>
       <c r="D2">
-        <v>1.020048264153338</v>
+        <v>1.0069195888708</v>
       </c>
       <c r="E2">
-        <v>1.015670437013835</v>
+        <v>0.9948554044636694</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025677096293251</v>
+        <v>1.037667380431171</v>
       </c>
       <c r="J2">
-        <v>1.019028854079417</v>
+        <v>1.009081017508124</v>
       </c>
       <c r="K2">
-        <v>1.022889703837036</v>
+        <v>1.018283357279868</v>
       </c>
       <c r="L2">
-        <v>1.018524900757735</v>
+        <v>1.006386880045635</v>
       </c>
       <c r="N2">
-        <v>1.010482264980734</v>
+        <v>1.007126261475641</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014560158083</v>
+        <v>0.9900824073251567</v>
       </c>
       <c r="D3">
-        <v>1.020571571607653</v>
+        <v>1.009304138932702</v>
       </c>
       <c r="E3">
-        <v>1.01631489921221</v>
+        <v>0.9976407707769483</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025731484584719</v>
+        <v>1.038204372158679</v>
       </c>
       <c r="J3">
-        <v>1.01943035070711</v>
+        <v>1.010847136368365</v>
       </c>
       <c r="K3">
-        <v>1.023219944023796</v>
+        <v>1.019819339786217</v>
       </c>
       <c r="L3">
-        <v>1.018975022064269</v>
+        <v>1.008303927651194</v>
       </c>
       <c r="N3">
-        <v>1.010615547099763</v>
+        <v>1.007715725327032</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015056621355488</v>
+        <v>0.9923669890950005</v>
       </c>
       <c r="D4">
-        <v>1.0209104740811</v>
+        <v>1.010821705580271</v>
       </c>
       <c r="E4">
-        <v>1.016732888917631</v>
+        <v>0.9994175334538997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025765382872579</v>
+        <v>1.038534994809414</v>
       </c>
       <c r="J4">
-        <v>1.01969015008195</v>
+        <v>1.011967984164022</v>
       </c>
       <c r="K4">
-        <v>1.023433207292328</v>
+        <v>1.020791253392451</v>
       </c>
       <c r="L4">
-        <v>1.019266574955233</v>
+        <v>1.009522993420789</v>
       </c>
       <c r="N4">
-        <v>1.010701766359047</v>
+        <v>1.008089728017109</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015265490542645</v>
+        <v>0.9933179141923013</v>
       </c>
       <c r="D5">
-        <v>1.021053015495152</v>
+        <v>1.011453738719704</v>
       </c>
       <c r="E5">
-        <v>1.016908844252872</v>
+        <v>1.000158525343402</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025779323072867</v>
+        <v>1.038669995988381</v>
       </c>
       <c r="J5">
-        <v>1.019799369339803</v>
+        <v>1.01243404961995</v>
       </c>
       <c r="K5">
-        <v>1.023522760176482</v>
+        <v>1.021194681278226</v>
       </c>
       <c r="L5">
-        <v>1.019389212717889</v>
+        <v>1.010030485301792</v>
       </c>
       <c r="N5">
-        <v>1.010738006891468</v>
+        <v>1.00824522007503</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015300569690796</v>
+        <v>0.9934770287134451</v>
       </c>
       <c r="D6">
-        <v>1.021076952684722</v>
+        <v>1.011559514478783</v>
       </c>
       <c r="E6">
-        <v>1.016938401500015</v>
+        <v>1.000282596207005</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025781645456922</v>
+        <v>1.038692430297439</v>
       </c>
       <c r="J6">
-        <v>1.019817707669409</v>
+        <v>1.012512005988253</v>
       </c>
       <c r="K6">
-        <v>1.02353779041835</v>
+        <v>1.02126211843117</v>
       </c>
       <c r="L6">
-        <v>1.019409808135243</v>
+        <v>1.010115405366329</v>
       </c>
       <c r="N6">
-        <v>1.010744091467512</v>
+        <v>1.008271226985392</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015059411665167</v>
+        <v>0.9923797324221272</v>
       </c>
       <c r="D7">
-        <v>1.02091237846648</v>
+        <v>1.010830174057653</v>
       </c>
       <c r="E7">
-        <v>1.016735239130595</v>
+        <v>0.9994274578320235</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025765570363717</v>
+        <v>1.038536814336892</v>
       </c>
       <c r="J7">
-        <v>1.01969160947836</v>
+        <v>1.011974231795438</v>
       </c>
       <c r="K7">
-        <v>1.023434404308855</v>
+        <v>1.020796664185116</v>
       </c>
       <c r="L7">
-        <v>1.019268213378111</v>
+        <v>1.009529794058331</v>
       </c>
       <c r="N7">
-        <v>1.010702250631187</v>
+        <v>1.008091812492388</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014052739945947</v>
+        <v>0.9877117370736942</v>
       </c>
       <c r="D8">
-        <v>1.020225057599428</v>
+        <v>1.007730796022792</v>
       </c>
       <c r="E8">
-        <v>1.015888031974956</v>
+        <v>0.9958021210918159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025695744690433</v>
+        <v>1.037852372640965</v>
       </c>
       <c r="J8">
-        <v>1.019164540027655</v>
+        <v>1.0096825015601</v>
       </c>
       <c r="K8">
-        <v>1.023001397028323</v>
+        <v>1.018807057224509</v>
       </c>
       <c r="L8">
-        <v>1.018676959503296</v>
+        <v>1.00703925718479</v>
       </c>
       <c r="N8">
-        <v>1.01052731280066</v>
+        <v>1.007327033037064</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012283996683516</v>
+        <v>0.9791598712582645</v>
       </c>
       <c r="D9">
-        <v>1.01901620227694</v>
+        <v>1.002068781912553</v>
       </c>
       <c r="E9">
-        <v>1.014402737519766</v>
+        <v>0.9892106524083434</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025562819711759</v>
+        <v>1.036515345255915</v>
       </c>
       <c r="J9">
-        <v>1.018235870720592</v>
+        <v>1.00547063764051</v>
       </c>
       <c r="K9">
-        <v>1.022235197315357</v>
+        <v>1.015128383508884</v>
       </c>
       <c r="L9">
-        <v>1.017637416281911</v>
+        <v>1.002481238866123</v>
       </c>
       <c r="N9">
-        <v>1.010218894241586</v>
+        <v>1.005920796553028</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011108408088345</v>
+        <v>0.9732201301002283</v>
       </c>
       <c r="D10">
-        <v>1.01821196073472</v>
+        <v>0.9981505072303675</v>
       </c>
       <c r="E10">
-        <v>1.013417768607924</v>
+        <v>0.9846688836240481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025467600937058</v>
+        <v>1.035533093790179</v>
       </c>
       <c r="J10">
-        <v>1.017616905359605</v>
+        <v>1.002538071742902</v>
       </c>
       <c r="K10">
-        <v>1.021722341455993</v>
+        <v>1.012553235326913</v>
       </c>
       <c r="L10">
-        <v>1.016946039847802</v>
+        <v>0.9993205754494575</v>
       </c>
       <c r="N10">
-        <v>1.010013206632241</v>
+        <v>1.004941309549386</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010600237626655</v>
+        <v>0.9705870452904438</v>
       </c>
       <c r="D11">
-        <v>1.017864135158167</v>
+        <v>0.9964177158898547</v>
       </c>
       <c r="E11">
-        <v>1.012992532047668</v>
+        <v>0.9826647106651365</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02542481326569</v>
+        <v>1.035085523287773</v>
       </c>
       <c r="J11">
-        <v>1.017348939311283</v>
+        <v>1.001236779354295</v>
       </c>
       <c r="K11">
-        <v>1.021499799700126</v>
+        <v>1.011407506525437</v>
       </c>
       <c r="L11">
-        <v>1.016647077525566</v>
+        <v>0.9979211209810311</v>
       </c>
       <c r="N11">
-        <v>1.009924130024823</v>
+        <v>1.00450660312883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01041161277897</v>
+        <v>0.9695994038628581</v>
       </c>
       <c r="D12">
-        <v>1.017735001892168</v>
+        <v>0.99576846132514</v>
       </c>
       <c r="E12">
-        <v>1.012834771903383</v>
+        <v>0.9819143982652163</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025408686767084</v>
+        <v>1.034915870475775</v>
       </c>
       <c r="J12">
-        <v>1.017249413750399</v>
+        <v>1.000748521916584</v>
       </c>
       <c r="K12">
-        <v>1.021417068371979</v>
+        <v>1.010977182459521</v>
       </c>
       <c r="L12">
-        <v>1.016536092518</v>
+        <v>0.9973964905917916</v>
       </c>
       <c r="N12">
-        <v>1.009891041632509</v>
+        <v>1.004343488126898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010452067430553</v>
+        <v>0.9698116974199944</v>
       </c>
       <c r="D13">
-        <v>1.017762698457446</v>
+        <v>0.9959079860040563</v>
       </c>
       <c r="E13">
-        <v>1.01286860328333</v>
+        <v>0.9820756124392193</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025412156499441</v>
+        <v>1.034952416716045</v>
       </c>
       <c r="J13">
-        <v>1.017270761892427</v>
+        <v>1.000853479359037</v>
       </c>
       <c r="K13">
-        <v>1.021434817640167</v>
+        <v>1.011069705702942</v>
       </c>
       <c r="L13">
-        <v>1.016559896306762</v>
+        <v>0.9975092461707742</v>
       </c>
       <c r="N13">
-        <v>1.009898139259054</v>
+        <v>1.004378552249522</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010584643127656</v>
+        <v>0.9705056047659681</v>
       </c>
       <c r="D14">
-        <v>1.0178534596314</v>
+        <v>0.9963641640410577</v>
       </c>
       <c r="E14">
-        <v>1.0129794876231</v>
+        <v>0.9826028107981105</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02542348499842</v>
+        <v>1.035071569572579</v>
       </c>
       <c r="J14">
-        <v>1.017340712306243</v>
+        <v>1.001196520813097</v>
       </c>
       <c r="K14">
-        <v>1.021492962510221</v>
+        <v>1.011372033532767</v>
       </c>
       <c r="L14">
-        <v>1.01663790217776</v>
+        <v>0.9978778540407667</v>
       </c>
       <c r="N14">
-        <v>1.009921394953103</v>
+        <v>1.004493153896904</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010666344979696</v>
+        <v>0.9709318596693491</v>
       </c>
       <c r="D15">
-        <v>1.017909389214088</v>
+        <v>0.9966444800915167</v>
       </c>
       <c r="E15">
-        <v>1.013047832583145</v>
+        <v>0.9829268497324583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025430433973751</v>
+        <v>1.035144530427568</v>
       </c>
       <c r="J15">
-        <v>1.017383812295339</v>
+        <v>1.001407225466193</v>
       </c>
       <c r="K15">
-        <v>1.021528778329882</v>
+        <v>1.011557673997894</v>
       </c>
       <c r="L15">
-        <v>1.016685972552733</v>
+        <v>0.9981043227118558</v>
       </c>
       <c r="N15">
-        <v>1.009935723386767</v>
+        <v>1.004563543963812</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011142152129631</v>
+        <v>0.9733935565804208</v>
       </c>
       <c r="D16">
-        <v>1.018235053722858</v>
+        <v>0.9982647294305842</v>
       </c>
       <c r="E16">
-        <v>1.013446016917354</v>
+        <v>0.984801083263843</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025470407864246</v>
+        <v>1.035562323551714</v>
       </c>
       <c r="J16">
-        <v>1.017634690561183</v>
+        <v>1.00262375675131</v>
       </c>
       <c r="K16">
-        <v>1.021737101004919</v>
+        <v>1.012628615460512</v>
       </c>
       <c r="L16">
-        <v>1.016965889728307</v>
+        <v>0.9994127877244426</v>
       </c>
       <c r="N16">
-        <v>1.010019118132853</v>
+        <v>1.004969931932612</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011440846963881</v>
+        <v>0.9749210624759374</v>
       </c>
       <c r="D17">
-        <v>1.018439447405133</v>
+        <v>0.9992712607914104</v>
       </c>
       <c r="E17">
-        <v>1.01369612666564</v>
+        <v>0.9859665260537904</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025495065998497</v>
+        <v>1.035818394396317</v>
       </c>
       <c r="J17">
-        <v>1.01779207428526</v>
+        <v>1.003378310755586</v>
       </c>
       <c r="K17">
-        <v>1.021867651043158</v>
+        <v>1.013292079521892</v>
       </c>
       <c r="L17">
-        <v>1.017141584788225</v>
+        <v>1.000225169913825</v>
       </c>
       <c r="N17">
-        <v>1.010071426460765</v>
+        <v>1.005221976763318</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011615154140687</v>
+        <v>0.9758061608690353</v>
       </c>
       <c r="D18">
-        <v>1.018558706810633</v>
+        <v>0.9998548784454327</v>
       </c>
       <c r="E18">
-        <v>1.013842133022439</v>
+        <v>0.9866427015907647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02550929836483</v>
+        <v>1.035965613880005</v>
       </c>
       <c r="J18">
-        <v>1.017883878280057</v>
+        <v>1.003815404788054</v>
       </c>
       <c r="K18">
-        <v>1.021943753053054</v>
+        <v>1.01367611734667</v>
       </c>
       <c r="L18">
-        <v>1.017244104027421</v>
+        <v>1.000696052726675</v>
       </c>
       <c r="N18">
-        <v>1.010101935782033</v>
+        <v>1.005367973159558</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011674602491142</v>
+        <v>0.9761069730182733</v>
       </c>
       <c r="D19">
-        <v>1.018599377911759</v>
+        <v>1.000053293080497</v>
       </c>
       <c r="E19">
-        <v>1.013891937972986</v>
+        <v>0.9868726548922322</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02551412571761</v>
+        <v>1.03601545038626</v>
       </c>
       <c r="J19">
-        <v>1.017915181828418</v>
+        <v>1.003963934588199</v>
       </c>
       <c r="K19">
-        <v>1.021969694089316</v>
+        <v>1.013806568189419</v>
       </c>
       <c r="L19">
-        <v>1.017279067053739</v>
+        <v>1.000856113631102</v>
       </c>
       <c r="N19">
-        <v>1.010112338446175</v>
+        <v>1.005417583287918</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011408791180248</v>
+        <v>0.9747577856062218</v>
       </c>
       <c r="D20">
-        <v>1.018417513741933</v>
+        <v>0.9991636302668038</v>
       </c>
       <c r="E20">
-        <v>1.013669279666561</v>
+        <v>0.9858418598463702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025492435955763</v>
+        <v>1.035791142447765</v>
       </c>
       <c r="J20">
-        <v>1.017775188001345</v>
+        <v>1.00329766830373</v>
       </c>
       <c r="K20">
-        <v>1.021853648967525</v>
+        <v>1.013221202187894</v>
       </c>
       <c r="L20">
-        <v>1.017122730296427</v>
+        <v>1.000138317001969</v>
       </c>
       <c r="N20">
-        <v>1.010065814396976</v>
+        <v>1.005195040334687</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0105455992213</v>
+        <v>0.9703015346760908</v>
       </c>
       <c r="D21">
-        <v>1.017826730926677</v>
+        <v>0.9962299876348172</v>
       </c>
       <c r="E21">
-        <v>1.012946829641299</v>
+        <v>0.9824477280671304</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025420155470982</v>
+        <v>1.035036576546554</v>
       </c>
       <c r="J21">
-        <v>1.017320113393908</v>
+        <v>1.001095640326958</v>
       </c>
       <c r="K21">
-        <v>1.021475842199527</v>
+        <v>1.011283137800403</v>
       </c>
       <c r="L21">
-        <v>1.016614929643717</v>
+        <v>0.9977694424476695</v>
       </c>
       <c r="N21">
-        <v>1.009914546764714</v>
+        <v>1.004459452460842</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010003642548644</v>
+        <v>0.9674439699224825</v>
       </c>
       <c r="D22">
-        <v>1.017455657341106</v>
+        <v>0.9943528821844265</v>
       </c>
       <c r="E22">
-        <v>1.012493706499807</v>
+        <v>0.9802795984543375</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025373360689526</v>
+        <v>1.034542415973765</v>
       </c>
       <c r="J22">
-        <v>1.017034042482262</v>
+        <v>0.9996826992874871</v>
       </c>
       <c r="K22">
-        <v>1.021237899221228</v>
+        <v>1.010037045840926</v>
       </c>
       <c r="L22">
-        <v>1.016296019976106</v>
+        <v>0.9962521111910543</v>
       </c>
       <c r="N22">
-        <v>1.009819431099563</v>
+        <v>1.003987407858863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010290870721381</v>
+        <v>0.9689642462311677</v>
       </c>
       <c r="D23">
-        <v>1.017652334225293</v>
+        <v>0.9953511271925841</v>
       </c>
       <c r="E23">
-        <v>1.012733809740103</v>
+        <v>0.9814322778534713</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025398295135386</v>
+        <v>1.034806272321898</v>
       </c>
       <c r="J23">
-        <v>1.017185688622326</v>
+        <v>1.000434481338824</v>
       </c>
       <c r="K23">
-        <v>1.021364074804179</v>
+        <v>1.010700283713622</v>
       </c>
       <c r="L23">
-        <v>1.016465044924327</v>
+        <v>0.9970591845626097</v>
       </c>
       <c r="N23">
-        <v>1.009869854274592</v>
+        <v>1.004238572439041</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011423275551202</v>
+        <v>0.9748315815059946</v>
       </c>
       <c r="D24">
-        <v>1.018427424496807</v>
+        <v>0.9992122745939926</v>
       </c>
       <c r="E24">
-        <v>1.01368141029448</v>
+        <v>0.985898202271574</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025493624823379</v>
+        <v>1.035803463046181</v>
       </c>
       <c r="J24">
-        <v>1.017782818171756</v>
+        <v>1.003334116491204</v>
       </c>
       <c r="K24">
-        <v>1.021859976043938</v>
+        <v>1.013253237709292</v>
       </c>
       <c r="L24">
-        <v>1.01713124970852</v>
+        <v>1.000177571247882</v>
       </c>
       <c r="N24">
-        <v>1.010068350250936</v>
+        <v>1.005207214886499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012740637921531</v>
+        <v>0.9814113061359974</v>
       </c>
       <c r="D25">
-        <v>1.019328436256194</v>
+        <v>1.003557188178616</v>
       </c>
       <c r="E25">
-        <v>1.014785809320876</v>
+        <v>0.9909398669802725</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025598350806098</v>
+        <v>1.036876801204872</v>
       </c>
       <c r="J25">
-        <v>1.018475934140528</v>
+        <v>1.006580867027377</v>
       </c>
       <c r="K25">
-        <v>1.022433646965284</v>
+        <v>1.016100533223285</v>
       </c>
       <c r="L25">
-        <v>1.017905878561795</v>
+        <v>1.00368047714849</v>
       </c>
       <c r="N25">
-        <v>1.010298643247282</v>
+        <v>1.006291545695069</v>
       </c>
     </row>
   </sheetData>
